--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H2">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I2">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J2">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N2">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O2">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P2">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q2">
-        <v>1255.241558460864</v>
+        <v>1342.381478003631</v>
       </c>
       <c r="R2">
-        <v>11297.17402614778</v>
+        <v>12081.43330203268</v>
       </c>
       <c r="S2">
-        <v>0.3283594751100266</v>
+        <v>0.4244108147900783</v>
       </c>
       <c r="T2">
-        <v>0.3283594751100266</v>
+        <v>0.4244108147900783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H3">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I3">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J3">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.240936</v>
       </c>
       <c r="O3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q3">
-        <v>174.088045677312</v>
+        <v>178.885647964728</v>
       </c>
       <c r="R3">
-        <v>1566.792411095808</v>
+        <v>1609.970831682552</v>
       </c>
       <c r="S3">
-        <v>0.04553980778936641</v>
+        <v>0.05655695109848347</v>
       </c>
       <c r="T3">
-        <v>0.04553980778936642</v>
+        <v>0.05655695109848348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>42.66537599999999</v>
+        <v>43.841169</v>
       </c>
       <c r="H4">
-        <v>127.996128</v>
+        <v>131.523507</v>
       </c>
       <c r="I4">
-        <v>0.5598448706913428</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="J4">
-        <v>0.5598448706913429</v>
+        <v>0.6105408572336042</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N4">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q4">
-        <v>710.8265395133758</v>
+        <v>409.830550513398</v>
       </c>
       <c r="R4">
-        <v>6397.438855620382</v>
+        <v>3688.474954620581</v>
       </c>
       <c r="S4">
-        <v>0.1859455877919499</v>
+        <v>0.1295730913450424</v>
       </c>
       <c r="T4">
-        <v>0.1859455877919499</v>
+        <v>0.1295730913450424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>13.69518</v>
       </c>
       <c r="I5">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J5">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N5">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O5">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P5">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q5">
-        <v>134.30686814684</v>
+        <v>139.77848058694</v>
       </c>
       <c r="R5">
-        <v>1208.76181332156</v>
+        <v>1258.00632528246</v>
       </c>
       <c r="S5">
-        <v>0.03513342306993329</v>
+        <v>0.04419272748328391</v>
       </c>
       <c r="T5">
-        <v>0.03513342306993329</v>
+        <v>0.04419272748328392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>13.69518</v>
       </c>
       <c r="I6">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J6">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.240936</v>
       </c>
       <c r="O6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q6">
         <v>18.62686909872</v>
@@ -818,10 +818,10 @@
         <v>167.64182188848</v>
       </c>
       <c r="S6">
-        <v>0.004872615090675049</v>
+        <v>0.005889119315719956</v>
       </c>
       <c r="T6">
-        <v>0.00487261509067505</v>
+        <v>0.005889119315719958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>13.69518</v>
       </c>
       <c r="I7">
-        <v>0.05990162668197795</v>
+        <v>0.0635739353967235</v>
       </c>
       <c r="J7">
-        <v>0.05990162668197797</v>
+        <v>0.06357393539672351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N7">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q7">
-        <v>76.05618669505998</v>
+        <v>42.67452478118666</v>
       </c>
       <c r="R7">
-        <v>684.5056802555399</v>
+        <v>384.07072303068</v>
       </c>
       <c r="S7">
-        <v>0.01989558852136962</v>
+        <v>0.01349208859771963</v>
       </c>
       <c r="T7">
-        <v>0.01989558852136962</v>
+        <v>0.01349208859771964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H8">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I8">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J8">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N8">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O8">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P8">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q8">
-        <v>852.5754619451867</v>
+        <v>716.515956541528</v>
       </c>
       <c r="R8">
-        <v>7673.17915750668</v>
+        <v>6448.643608873752</v>
       </c>
       <c r="S8">
-        <v>0.2230257827977564</v>
+        <v>0.2265355459002092</v>
       </c>
       <c r="T8">
-        <v>0.2230257827977564</v>
+        <v>0.2265355459002092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H9">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I9">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J9">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.240936</v>
       </c>
       <c r="O9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q9">
-        <v>118.24273580016</v>
+        <v>95.48285883206401</v>
       </c>
       <c r="R9">
-        <v>1064.18462220144</v>
+        <v>859.3457294885761</v>
       </c>
       <c r="S9">
-        <v>0.03093119599268319</v>
+        <v>0.03018810865572201</v>
       </c>
       <c r="T9">
-        <v>0.0309311959926832</v>
+        <v>0.03018810865572201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.97884666666667</v>
+        <v>23.400872</v>
       </c>
       <c r="H10">
-        <v>86.93653999999999</v>
+        <v>70.20261600000001</v>
       </c>
       <c r="I10">
-        <v>0.3802535026266791</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="J10">
-        <v>0.3802535026266792</v>
+        <v>0.3258852073696723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N10">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q10">
-        <v>482.8021038688465</v>
+        <v>218.7531143216907</v>
       </c>
       <c r="R10">
-        <v>4345.218934819619</v>
+        <v>1968.778028895216</v>
       </c>
       <c r="S10">
-        <v>0.1262965238362395</v>
+        <v>0.06916155281374105</v>
       </c>
       <c r="T10">
-        <v>0.1262965238362395</v>
+        <v>0.06916155281374105</v>
       </c>
     </row>
   </sheetData>
